--- a/attachments/Input Merchant Acquisition Testing.xlsx
+++ b/attachments/Input Merchant Acquisition Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6290"/>
   </bookViews>
   <sheets>
     <sheet name="Versi 1" sheetId="1" r:id="rId1"/>
@@ -789,16 +789,16 @@
     <t>Only Asccend</t>
   </si>
   <si>
-    <t>000000000000239</t>
-  </si>
-  <si>
-    <t>DISC17</t>
-  </si>
-  <si>
-    <t>PO0017</t>
-  </si>
-  <si>
-    <t>00000387233</t>
+    <t>000000000000243</t>
+  </si>
+  <si>
+    <t>DISC40</t>
+  </si>
+  <si>
+    <t>PO0040</t>
+  </si>
+  <si>
+    <t>00000387290</t>
   </si>
 </sst>
 </file>
@@ -1174,89 +1174,34 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,9 +1209,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,53 +1487,53 @@
   </sheetPr>
   <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" customWidth="1"/>
+    <col min="9" max="10" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+    <col min="14" max="14" width="20.54296875" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="97" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="D1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="98"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="98"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="107"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1549,15 +1549,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="95"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>35</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
@@ -1729,128 +1729,128 @@
       <c r="C20" s="11"/>
       <c r="D20" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="103" t="s">
+    <row r="22" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="96"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="105" t="s">
+    <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105" t="s">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105" t="s">
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="96"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="89"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="102"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="102"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="102"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H24" s="140"/>
+      <c r="I24" s="95"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="134" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="87"/>
       <c r="D25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="E25" s="134" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="87"/>
       <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="133"/>
       <c r="I25" s="87"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="134" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="87"/>
       <c r="D26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="134" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="87"/>
       <c r="G26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="133"/>
       <c r="I26" s="87"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="134" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="87"/>
       <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="134" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="133"/>
       <c r="I27" s="87"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="89" t="s">
+    <row r="28" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -1859,7 +1859,7 @@
       <c r="C28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="119" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="23" t="s">
@@ -1868,7 +1868,7 @@
       <c r="F28" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="119" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -1876,188 +1876,188 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
+    <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="90"/>
+      <c r="G29" s="100"/>
       <c r="H29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
+    <row r="30" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="90"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I30" s="20"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
+    <row r="31" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="100"/>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="90"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="90"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I31" s="20"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
+    <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="100"/>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="90"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="90"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I32" s="20"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
+    <row r="33" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
       <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="90"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="90"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I33" s="20"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
+    <row r="34" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="100"/>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="90"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="90"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I34" s="20"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
+    <row r="35" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="101"/>
       <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="91"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="91"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I35" s="21"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="93"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="92" t="s">
+      <c r="E36" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="93"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="100" t="s">
+      <c r="H36" s="136"/>
+      <c r="I36" s="91"/>
+    </row>
+    <row r="38" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="109"/>
+      <c r="C38" s="95"/>
+    </row>
+    <row r="39" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>87</v>
       </c>
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C39" s="26"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="87"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="107" t="s">
+    <row r="41" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="127" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -2086,8 +2086,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="108"/>
+    <row r="42" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="128"/>
       <c r="B42" s="10" t="s">
         <v>66</v>
       </c>
@@ -2095,8 +2095,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="108"/>
+    <row r="43" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="128"/>
       <c r="B43" s="10" t="s">
         <v>69</v>
       </c>
@@ -2104,8 +2104,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="108"/>
+    <row r="44" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="128"/>
       <c r="B44" s="10" t="s">
         <v>72</v>
       </c>
@@ -2113,8 +2113,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="108"/>
+    <row r="45" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="128"/>
       <c r="B45" s="10" t="s">
         <v>75</v>
       </c>
@@ -2122,8 +2122,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="108"/>
+    <row r="46" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="128"/>
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -2131,8 +2131,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="108"/>
+    <row r="47" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="128"/>
       <c r="B47" s="10" t="s">
         <v>80</v>
       </c>
@@ -2140,8 +2140,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="109"/>
+    <row r="48" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="129"/>
       <c r="B48" s="10" t="s">
         <v>82</v>
       </c>
@@ -2149,40 +2149,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="102"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C49" s="95"/>
+    </row>
+    <row r="50" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="121" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="87"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="93"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="100" t="s">
+      <c r="C51" s="91"/>
+    </row>
+    <row r="53" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="102"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="95"/>
+    </row>
+    <row r="54" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>100</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>102</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>104</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>106</v>
       </c>
@@ -2214,167 +2214,167 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="21"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="120" t="s">
+    <row r="62" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="104"/>
-      <c r="P62" s="104"/>
-      <c r="Q62" s="104"/>
-      <c r="R62" s="96"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="121" t="s">
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="92"/>
+      <c r="R62" s="89"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="121" t="s">
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="121" t="s">
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="96"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N63" s="92"/>
+      <c r="O63" s="92"/>
+      <c r="P63" s="92"/>
+      <c r="Q63" s="92"/>
+      <c r="R63" s="89"/>
+    </row>
+    <row r="64" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="96"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="89"/>
       <c r="G64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H64" s="117" t="s">
+      <c r="H64" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="96"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="89"/>
       <c r="M64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N64" s="118"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="96"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="89" t="s">
+      <c r="N64" s="97"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="92"/>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="89"/>
+    </row>
+    <row r="65" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="119" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="112" t="s">
+      <c r="C65" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="89" t="s">
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="119" t="s">
         <v>115</v>
       </c>
       <c r="H65" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I65" s="119"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="114" t="s">
+      <c r="I65" s="125"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="120" t="s">
         <v>115</v>
       </c>
       <c r="N65" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="O65" s="119"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="102"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="90"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="95"/>
+    </row>
+    <row r="66" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="100"/>
       <c r="B66" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="111" t="s">
+      <c r="C66" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="90"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="100"/>
       <c r="H66" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="115"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
       <c r="L66" s="87"/>
-      <c r="M66" s="90"/>
+      <c r="M66" s="100"/>
       <c r="N66" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="O66" s="115"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
+      <c r="O66" s="122"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
       <c r="R66" s="87"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="90"/>
-      <c r="B67" s="116" t="s">
+    <row r="67" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="100"/>
+      <c r="B67" s="123" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="33" t="s">
@@ -2389,8 +2389,8 @@
       <c r="F67" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G67" s="90"/>
-      <c r="H67" s="116" t="s">
+      <c r="G67" s="100"/>
+      <c r="H67" s="123" t="s">
         <v>120</v>
       </c>
       <c r="I67" s="33" t="s">
@@ -2405,8 +2405,8 @@
       <c r="L67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M67" s="90"/>
-      <c r="N67" s="116" t="s">
+      <c r="M67" s="100"/>
+      <c r="N67" s="123" t="s">
         <v>120</v>
       </c>
       <c r="O67" s="33" t="s">
@@ -2422,8 +2422,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="90"/>
+    <row r="68" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
       <c r="B68" s="87"/>
       <c r="C68" s="31" t="s">
         <v>124</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="32"/>
-      <c r="G68" s="90"/>
+      <c r="G68" s="100"/>
       <c r="H68" s="87"/>
       <c r="I68" s="31" t="s">
         <v>125</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="90"/>
+      <c r="M68" s="100"/>
       <c r="N68" s="87"/>
       <c r="O68" s="31" t="s">
         <v>125</v>
@@ -2454,8 +2454,8 @@
       <c r="Q68" s="20"/>
       <c r="R68" s="20"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="90"/>
+    <row r="69" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="100"/>
       <c r="B69" s="87"/>
       <c r="C69" s="31" t="s">
         <v>126</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="32"/>
-      <c r="G69" s="90"/>
+      <c r="G69" s="100"/>
       <c r="H69" s="87"/>
       <c r="I69" s="31" t="s">
         <v>127</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="90"/>
+      <c r="M69" s="100"/>
       <c r="N69" s="87"/>
       <c r="O69" s="31" t="s">
         <v>127</v>
@@ -2486,8 +2486,8 @@
       <c r="Q69" s="20"/>
       <c r="R69" s="20"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="90"/>
+    <row r="70" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="100"/>
       <c r="B70" s="87"/>
       <c r="C70" s="31" t="s">
         <v>128</v>
@@ -2501,7 +2501,7 @@
       <c r="F70" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="90"/>
+      <c r="G70" s="100"/>
       <c r="H70" s="87"/>
       <c r="I70" s="31" t="s">
         <v>128</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="90"/>
+      <c r="M70" s="100"/>
       <c r="N70" s="87"/>
       <c r="O70" s="31" t="s">
         <v>128</v>
@@ -2522,8 +2522,8 @@
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="90"/>
+    <row r="71" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="100"/>
       <c r="B71" s="87"/>
       <c r="C71" s="31" t="s">
         <v>131</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="32"/>
-      <c r="G71" s="90"/>
+      <c r="G71" s="100"/>
       <c r="H71" s="87"/>
       <c r="I71" s="31" t="s">
         <v>131</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="90"/>
+      <c r="M71" s="100"/>
       <c r="N71" s="87"/>
       <c r="O71" s="31" t="s">
         <v>131</v>
@@ -2554,8 +2554,8 @@
       <c r="Q71" s="20"/>
       <c r="R71" s="20"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="90"/>
+    <row r="72" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="100"/>
       <c r="B72" s="87"/>
       <c r="C72" s="31" t="s">
         <v>132</v>
@@ -2569,7 +2569,7 @@
       <c r="F72" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="90"/>
+      <c r="G72" s="100"/>
       <c r="H72" s="87"/>
       <c r="I72" s="31" t="s">
         <v>132</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="90"/>
+      <c r="M72" s="100"/>
       <c r="N72" s="87"/>
       <c r="O72" s="31" t="s">
         <v>132</v>
@@ -2590,8 +2590,8 @@
       <c r="Q72" s="20"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="90"/>
+    <row r="73" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="100"/>
       <c r="B73" s="87"/>
       <c r="C73" s="31" t="s">
         <v>135</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="32"/>
-      <c r="G73" s="90"/>
+      <c r="G73" s="100"/>
       <c r="H73" s="87"/>
       <c r="I73" s="31" t="s">
         <v>135</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
-      <c r="M73" s="90"/>
+      <c r="M73" s="100"/>
       <c r="N73" s="87"/>
       <c r="O73" s="31" t="s">
         <v>135</v>
@@ -2622,8 +2622,8 @@
       <c r="Q73" s="20"/>
       <c r="R73" s="20"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
+    <row r="74" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="100"/>
       <c r="B74" s="87"/>
       <c r="C74" s="31" t="s">
         <v>136</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="32"/>
-      <c r="G74" s="90"/>
+      <c r="G74" s="100"/>
       <c r="H74" s="87"/>
       <c r="I74" s="31" t="s">
         <v>136</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
-      <c r="M74" s="90"/>
+      <c r="M74" s="100"/>
       <c r="N74" s="87"/>
       <c r="O74" s="31" t="s">
         <v>136</v>
@@ -2654,8 +2654,8 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="90"/>
+    <row r="75" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="100"/>
       <c r="B75" s="87"/>
       <c r="C75" s="31" t="s">
         <v>137</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="32"/>
-      <c r="G75" s="90"/>
+      <c r="G75" s="100"/>
       <c r="H75" s="87"/>
       <c r="I75" s="31" t="s">
         <v>137</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="90"/>
+      <c r="M75" s="100"/>
       <c r="N75" s="87"/>
       <c r="O75" s="31" t="s">
         <v>137</v>
@@ -2686,8 +2686,8 @@
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="90"/>
+    <row r="76" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="100"/>
       <c r="B76" s="87"/>
       <c r="C76" s="31" t="s">
         <v>138</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="32"/>
-      <c r="G76" s="90"/>
+      <c r="G76" s="100"/>
       <c r="H76" s="87"/>
       <c r="I76" s="31" t="s">
         <v>138</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="90"/>
+      <c r="M76" s="100"/>
       <c r="N76" s="87"/>
       <c r="O76" s="31" t="s">
         <v>138</v>
@@ -2718,8 +2718,8 @@
       <c r="Q76" s="20"/>
       <c r="R76" s="20"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="90"/>
+    <row r="77" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="100"/>
       <c r="B77" s="87"/>
       <c r="C77" s="31" t="s">
         <v>139</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="32"/>
-      <c r="G77" s="90"/>
+      <c r="G77" s="100"/>
       <c r="H77" s="87"/>
       <c r="I77" s="31" t="s">
         <v>139</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="90"/>
+      <c r="M77" s="100"/>
       <c r="N77" s="87"/>
       <c r="O77" s="31" t="s">
         <v>139</v>
@@ -2750,9 +2750,9 @@
       <c r="Q77" s="20"/>
       <c r="R77" s="20"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="91"/>
-      <c r="B78" s="93"/>
+    <row r="78" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="101"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="31" t="s">
         <v>140</v>
       </c>
@@ -2761,8 +2761,8 @@
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="32"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="93"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="91"/>
       <c r="I78" s="31" t="s">
         <v>140</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="93"/>
+      <c r="M78" s="100"/>
+      <c r="N78" s="91"/>
       <c r="O78" s="31" t="s">
         <v>140</v>
       </c>
@@ -2782,33 +2782,33 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="20"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="122"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="96"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="H79" s="122"/>
-      <c r="I79" s="104"/>
-      <c r="J79" s="104"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="96"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="89"/>
       <c r="M79" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="N79" s="122"/>
-      <c r="O79" s="104"/>
-      <c r="P79" s="104"/>
-      <c r="Q79" s="104"/>
-      <c r="R79" s="96"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N79" s="88"/>
+      <c r="O79" s="92"/>
+      <c r="P79" s="92"/>
+      <c r="Q79" s="92"/>
+      <c r="R79" s="89"/>
+    </row>
+    <row r="80" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>142</v>
       </c>
@@ -2818,9 +2818,9 @@
       <c r="C80" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="122"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="96"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="89"/>
       <c r="G80" s="39" t="s">
         <v>142</v>
       </c>
@@ -2830,11 +2830,11 @@
       <c r="I80" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="124" t="s">
+      <c r="J80" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="K80" s="104"/>
-      <c r="L80" s="96"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="89"/>
       <c r="M80" s="39" t="s">
         <v>142</v>
       </c>
@@ -2844,208 +2844,208 @@
       <c r="O80" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="104"/>
-      <c r="R80" s="96"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="123" t="s">
+      <c r="P80" s="88"/>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="89"/>
+    </row>
+    <row r="81" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="125" t="b">
+      <c r="B81" s="118" t="b">
         <v>0</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="122"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="123" t="s">
+      <c r="D81" s="88"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="125" t="b">
+      <c r="H81" s="118" t="b">
         <v>0</v>
       </c>
       <c r="I81" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="J81" s="122"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="123" t="s">
+      <c r="J81" s="88"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="89"/>
+      <c r="M81" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="N81" s="125" t="b">
+      <c r="N81" s="118" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="P81" s="122"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="96"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
+      <c r="P81" s="88"/>
+      <c r="Q81" s="92"/>
+      <c r="R81" s="89"/>
+    </row>
+    <row r="82" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="100"/>
+      <c r="B82" s="100"/>
       <c r="C82" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="122"/>
-      <c r="E82" s="104"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="100"/>
       <c r="I82" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="J82" s="122"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="96"/>
-      <c r="M82" s="90"/>
-      <c r="N82" s="90"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="92"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="100"/>
+      <c r="N82" s="100"/>
       <c r="O82" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="P82" s="122"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="96"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="91"/>
-      <c r="B83" s="91"/>
+      <c r="P82" s="88"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="89"/>
+    </row>
+    <row r="83" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="101"/>
+      <c r="B83" s="101"/>
       <c r="C83" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="122"/>
-      <c r="E83" s="104"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
       <c r="I83" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="J83" s="122"/>
-      <c r="K83" s="104"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
       <c r="O83" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="P83" s="122"/>
-      <c r="Q83" s="104"/>
-      <c r="R83" s="96"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P83" s="88"/>
+      <c r="Q83" s="92"/>
+      <c r="R83" s="89"/>
+    </row>
+    <row r="84" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B84" s="43"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="129" t="s">
+    <row r="85" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="101"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="102"/>
-      <c r="G85" s="129" t="s">
+      <c r="B85" s="109"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="95"/>
+      <c r="G85" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="H85" s="101"/>
-      <c r="I85" s="101"/>
-      <c r="J85" s="101"/>
-      <c r="K85" s="102"/>
-      <c r="M85" s="129" t="s">
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="95"/>
+      <c r="M85" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="N85" s="101"/>
-      <c r="O85" s="101"/>
-      <c r="P85" s="101"/>
-      <c r="Q85" s="102"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N85" s="109"/>
+      <c r="O85" s="109"/>
+      <c r="P85" s="109"/>
+      <c r="Q85" s="95"/>
+    </row>
+    <row r="86" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="96"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="89"/>
       <c r="G86" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H86" s="126"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="96"/>
+      <c r="H86" s="113"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="89"/>
       <c r="M86" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="N86" s="126"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
-      <c r="Q86" s="96"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="130" t="s">
+      <c r="N86" s="113"/>
+      <c r="O86" s="92"/>
+      <c r="P86" s="92"/>
+      <c r="Q86" s="89"/>
+    </row>
+    <row r="87" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="99" t="s">
         <v>153</v>
       </c>
       <c r="B87" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="117" t="s">
+      <c r="C87" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="104"/>
-      <c r="E87" s="96"/>
-      <c r="G87" s="130" t="s">
+      <c r="D87" s="92"/>
+      <c r="E87" s="89"/>
+      <c r="G87" s="99" t="s">
         <v>153</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="I87" s="118"/>
-      <c r="J87" s="104"/>
-      <c r="K87" s="96"/>
-      <c r="M87" s="130" t="s">
+      <c r="I87" s="97"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="89"/>
+      <c r="M87" s="99" t="s">
         <v>153</v>
       </c>
       <c r="N87" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="O87" s="118"/>
-      <c r="P87" s="104"/>
-      <c r="Q87" s="96"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="91"/>
+      <c r="O87" s="97"/>
+      <c r="P87" s="92"/>
+      <c r="Q87" s="89"/>
+    </row>
+    <row r="88" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="101"/>
       <c r="B88" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="117" t="s">
+      <c r="C88" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="D88" s="104"/>
-      <c r="E88" s="96"/>
-      <c r="G88" s="91"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="89"/>
+      <c r="G88" s="101"/>
       <c r="H88" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I88" s="118"/>
-      <c r="J88" s="104"/>
-      <c r="K88" s="96"/>
-      <c r="M88" s="91"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="89"/>
+      <c r="M88" s="101"/>
       <c r="N88" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="O88" s="118"/>
-      <c r="P88" s="104"/>
-      <c r="Q88" s="96"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O88" s="97"/>
+      <c r="P88" s="92"/>
+      <c r="Q88" s="89"/>
+    </row>
+    <row r="89" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
         <v>158</v>
       </c>
@@ -3055,10 +3055,10 @@
       <c r="C89" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="131" t="s">
+      <c r="D89" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="E89" s="96"/>
+      <c r="E89" s="89"/>
       <c r="G89" s="44" t="s">
         <v>158</v>
       </c>
@@ -3066,8 +3066,8 @@
       <c r="I89" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="J89" s="131"/>
-      <c r="K89" s="96"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="89"/>
       <c r="M89" s="44" t="s">
         <v>158</v>
       </c>
@@ -3075,332 +3075,332 @@
       <c r="O89" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="P89" s="131"/>
-      <c r="Q89" s="96"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="130" t="s">
+      <c r="P89" s="98"/>
+      <c r="Q89" s="89"/>
+    </row>
+    <row r="90" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="127" t="s">
+      <c r="B90" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="102"/>
-      <c r="D90" s="99" t="b">
+      <c r="C90" s="95"/>
+      <c r="D90" s="93" t="b">
         <v>0</v>
       </c>
       <c r="E90" s="87"/>
-      <c r="G90" s="130" t="s">
+      <c r="G90" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="H90" s="127" t="s">
+      <c r="H90" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="I90" s="102"/>
-      <c r="J90" s="99" t="b">
+      <c r="I90" s="95"/>
+      <c r="J90" s="93" t="b">
         <v>0</v>
       </c>
       <c r="K90" s="87"/>
-      <c r="M90" s="130" t="s">
+      <c r="M90" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="N90" s="127" t="s">
+      <c r="N90" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="O90" s="102"/>
-      <c r="P90" s="99" t="b">
+      <c r="O90" s="95"/>
+      <c r="P90" s="93" t="b">
         <v>0</v>
       </c>
       <c r="Q90" s="87"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="90"/>
-      <c r="B91" s="128" t="s">
+    <row r="91" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="100"/>
+      <c r="B91" s="86" t="s">
         <v>164</v>
       </c>
       <c r="C91" s="87"/>
-      <c r="D91" s="99" t="b">
+      <c r="D91" s="93" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="87"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="128" t="s">
+      <c r="G91" s="100"/>
+      <c r="H91" s="86" t="s">
         <v>164</v>
       </c>
       <c r="I91" s="87"/>
-      <c r="J91" s="99" t="b">
+      <c r="J91" s="93" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="87"/>
-      <c r="M91" s="90"/>
-      <c r="N91" s="128" t="s">
+      <c r="M91" s="100"/>
+      <c r="N91" s="86" t="s">
         <v>164</v>
       </c>
       <c r="O91" s="87"/>
-      <c r="P91" s="99" t="b">
+      <c r="P91" s="93" t="b">
         <v>0</v>
       </c>
       <c r="Q91" s="87"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="90"/>
-      <c r="B92" s="128" t="s">
+    <row r="92" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="100"/>
+      <c r="B92" s="86" t="s">
         <v>165</v>
       </c>
       <c r="C92" s="87"/>
-      <c r="D92" s="99" t="b">
+      <c r="D92" s="93" t="b">
         <v>0</v>
       </c>
       <c r="E92" s="87"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="128" t="s">
+      <c r="G92" s="100"/>
+      <c r="H92" s="86" t="s">
         <v>165</v>
       </c>
       <c r="I92" s="87"/>
-      <c r="J92" s="99" t="b">
+      <c r="J92" s="93" t="b">
         <v>0</v>
       </c>
       <c r="K92" s="87"/>
-      <c r="M92" s="90"/>
-      <c r="N92" s="128" t="s">
+      <c r="M92" s="100"/>
+      <c r="N92" s="86" t="s">
         <v>165</v>
       </c>
       <c r="O92" s="87"/>
-      <c r="P92" s="99" t="b">
+      <c r="P92" s="93" t="b">
         <v>0</v>
       </c>
       <c r="Q92" s="87"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="90"/>
-      <c r="B93" s="128" t="s">
+    <row r="93" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="100"/>
+      <c r="B93" s="86" t="s">
         <v>135</v>
       </c>
       <c r="C93" s="87"/>
-      <c r="D93" s="99" t="b">
+      <c r="D93" s="93" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="87"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="128" t="s">
+      <c r="G93" s="100"/>
+      <c r="H93" s="86" t="s">
         <v>135</v>
       </c>
       <c r="I93" s="87"/>
-      <c r="J93" s="99" t="b">
+      <c r="J93" s="93" t="b">
         <v>0</v>
       </c>
       <c r="K93" s="87"/>
-      <c r="M93" s="90"/>
-      <c r="N93" s="128" t="s">
+      <c r="M93" s="100"/>
+      <c r="N93" s="86" t="s">
         <v>135</v>
       </c>
       <c r="O93" s="87"/>
-      <c r="P93" s="99" t="b">
+      <c r="P93" s="93" t="b">
         <v>0</v>
       </c>
       <c r="Q93" s="87"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="91"/>
-      <c r="B94" s="136" t="s">
+    <row r="94" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="101"/>
+      <c r="B94" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="93"/>
-      <c r="D94" s="99" t="b">
+      <c r="C94" s="91"/>
+      <c r="D94" s="93" t="b">
         <v>0</v>
       </c>
       <c r="E94" s="87"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="136" t="s">
+      <c r="G94" s="101"/>
+      <c r="H94" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="I94" s="93"/>
-      <c r="J94" s="99" t="b">
+      <c r="I94" s="91"/>
+      <c r="J94" s="93" t="b">
         <v>0</v>
       </c>
       <c r="K94" s="87"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="136" t="s">
+      <c r="M94" s="101"/>
+      <c r="N94" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="O94" s="93"/>
-      <c r="P94" s="99" t="b">
+      <c r="O94" s="91"/>
+      <c r="P94" s="93" t="b">
         <v>0</v>
       </c>
       <c r="Q94" s="87"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="130" t="s">
+    <row r="95" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="B95" s="127" t="s">
+      <c r="B95" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="102"/>
-      <c r="D95" s="131" t="s">
+      <c r="C95" s="95"/>
+      <c r="D95" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="96"/>
-      <c r="G95" s="130" t="s">
+      <c r="E95" s="89"/>
+      <c r="G95" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="H95" s="127" t="s">
+      <c r="H95" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="I95" s="102"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="96"/>
-      <c r="M95" s="130" t="s">
+      <c r="I95" s="95"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="89"/>
+      <c r="M95" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="N95" s="127" t="s">
+      <c r="N95" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="O95" s="102"/>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="96"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
-      <c r="B96" s="128" t="s">
+      <c r="O95" s="95"/>
+      <c r="P95" s="88"/>
+      <c r="Q95" s="89"/>
+    </row>
+    <row r="96" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="100"/>
+      <c r="B96" s="86" t="s">
         <v>170</v>
       </c>
       <c r="C96" s="87"/>
-      <c r="D96" s="131" t="s">
+      <c r="D96" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="96"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="128" t="s">
+      <c r="E96" s="89"/>
+      <c r="G96" s="100"/>
+      <c r="H96" s="86" t="s">
         <v>170</v>
       </c>
       <c r="I96" s="87"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="96"/>
-      <c r="M96" s="90"/>
-      <c r="N96" s="128" t="s">
+      <c r="J96" s="88"/>
+      <c r="K96" s="89"/>
+      <c r="M96" s="100"/>
+      <c r="N96" s="86" t="s">
         <v>170</v>
       </c>
       <c r="O96" s="87"/>
-      <c r="P96" s="122"/>
-      <c r="Q96" s="96"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="90"/>
-      <c r="B97" s="128" t="s">
+      <c r="P96" s="88"/>
+      <c r="Q96" s="89"/>
+    </row>
+    <row r="97" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="100"/>
+      <c r="B97" s="86" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="87"/>
-      <c r="D97" s="131" t="s">
+      <c r="D97" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="E97" s="96"/>
-      <c r="G97" s="90"/>
-      <c r="H97" s="128" t="s">
+      <c r="E97" s="89"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="86" t="s">
         <v>172</v>
       </c>
       <c r="I97" s="87"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="96"/>
-      <c r="M97" s="90"/>
-      <c r="N97" s="128" t="s">
+      <c r="J97" s="88"/>
+      <c r="K97" s="89"/>
+      <c r="M97" s="100"/>
+      <c r="N97" s="86" t="s">
         <v>172</v>
       </c>
       <c r="O97" s="87"/>
-      <c r="P97" s="122"/>
-      <c r="Q97" s="96"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="91"/>
-      <c r="B98" s="136" t="s">
+      <c r="P97" s="88"/>
+      <c r="Q97" s="89"/>
+    </row>
+    <row r="98" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="101"/>
+      <c r="B98" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="93"/>
-      <c r="D98" s="131" t="s">
+      <c r="C98" s="91"/>
+      <c r="D98" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="E98" s="96"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="136" t="s">
+      <c r="E98" s="89"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I98" s="93"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="96"/>
-      <c r="M98" s="91"/>
-      <c r="N98" s="136" t="s">
+      <c r="I98" s="91"/>
+      <c r="J98" s="88"/>
+      <c r="K98" s="89"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="O98" s="93"/>
-      <c r="P98" s="122"/>
-      <c r="Q98" s="96"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O98" s="91"/>
+      <c r="P98" s="88"/>
+      <c r="Q98" s="89"/>
+    </row>
+    <row r="99" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B99" s="131" t="s">
+      <c r="B99" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="96"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="89"/>
       <c r="G99" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="122"/>
-      <c r="I99" s="104"/>
-      <c r="J99" s="104"/>
-      <c r="K99" s="96"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="89"/>
       <c r="M99" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="N99" s="122"/>
-      <c r="O99" s="104"/>
-      <c r="P99" s="104"/>
-      <c r="Q99" s="96"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="139" t="s">
+      <c r="N99" s="88"/>
+      <c r="O99" s="92"/>
+      <c r="P99" s="92"/>
+      <c r="Q99" s="89"/>
+    </row>
+    <row r="101" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="98"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="98"/>
-      <c r="F101" s="129" t="s">
+      <c r="B101" s="107"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="107"/>
+      <c r="F101" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="G101" s="101"/>
-      <c r="H101" s="101"/>
-      <c r="I101" s="102"/>
-      <c r="K101" s="129" t="s">
+      <c r="G101" s="109"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="95"/>
+      <c r="K101" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="L101" s="101"/>
-      <c r="M101" s="101"/>
-      <c r="N101" s="102"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="135" t="s">
+      <c r="L101" s="109"/>
+      <c r="M101" s="109"/>
+      <c r="N101" s="95"/>
+    </row>
+    <row r="102" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="96"/>
-      <c r="F102" s="135" t="s">
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="89"/>
+      <c r="F102" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="96"/>
-      <c r="K102" s="135" t="s">
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="89"/>
+      <c r="K102" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="L102" s="104"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="96"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L102" s="92"/>
+      <c r="M102" s="92"/>
+      <c r="N102" s="89"/>
+    </row>
+    <row r="103" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>182</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="M103" s="32"/>
       <c r="N103" s="48"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
         <v>184</v>
       </c>
@@ -3448,27 +3448,27 @@
       <c r="M104" s="51"/>
       <c r="N104" s="52"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="135" t="s">
+    <row r="105" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="96"/>
-      <c r="F105" s="135" t="s">
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="89"/>
+      <c r="F105" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="96"/>
-      <c r="K105" s="135" t="s">
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="89"/>
+      <c r="K105" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="L105" s="104"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="96"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="89"/>
+    </row>
+    <row r="106" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>187</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="M106" s="32"/>
       <c r="N106" s="48"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
         <v>189</v>
       </c>
@@ -3516,27 +3516,27 @@
       <c r="M107" s="55"/>
       <c r="N107" s="56"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="137" t="s">
+    <row r="108" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="138"/>
-      <c r="C108" s="138"/>
-      <c r="D108" s="93"/>
-      <c r="F108" s="137" t="s">
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="91"/>
+      <c r="F108" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="G108" s="138"/>
-      <c r="H108" s="138"/>
-      <c r="I108" s="93"/>
-      <c r="K108" s="137" t="s">
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="91"/>
+      <c r="K108" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="L108" s="138"/>
-      <c r="M108" s="138"/>
-      <c r="N108" s="93"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L108" s="105"/>
+      <c r="M108" s="105"/>
+      <c r="N108" s="91"/>
+    </row>
+    <row r="109" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>193</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="M109" s="32"/>
       <c r="N109" s="48"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>189</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="M110" s="32"/>
       <c r="N110" s="48"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="49" t="s">
         <v>197</v>
       </c>
@@ -3608,27 +3608,27 @@
       <c r="M111" s="51"/>
       <c r="N111" s="52"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="135" t="s">
+    <row r="112" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="96"/>
-      <c r="F112" s="135" t="s">
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="89"/>
+      <c r="F112" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="104"/>
-      <c r="H112" s="104"/>
-      <c r="I112" s="96"/>
-      <c r="K112" s="135" t="s">
+      <c r="G112" s="92"/>
+      <c r="H112" s="92"/>
+      <c r="I112" s="89"/>
+      <c r="K112" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="L112" s="104"/>
-      <c r="M112" s="104"/>
-      <c r="N112" s="96"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L112" s="92"/>
+      <c r="M112" s="92"/>
+      <c r="N112" s="89"/>
+    </row>
+    <row r="113" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>200</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="N113" s="59"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="s">
         <v>202</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="N114" s="26"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="49" t="s">
         <v>204</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="N115" s="64"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>208</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="M116" s="32"/>
       <c r="N116" s="48"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>211</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="M117" s="32"/>
       <c r="N117" s="48"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="65" t="s">
         <v>214</v>
       </c>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="N118" s="59"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>218</v>
       </c>
@@ -3840,27 +3840,27 @@
       </c>
       <c r="N119" s="59"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="134" t="s">
+    <row r="120" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="96"/>
-      <c r="F120" s="134" t="s">
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="89"/>
+      <c r="F120" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="96"/>
-      <c r="K120" s="134" t="s">
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="89"/>
+      <c r="K120" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="L120" s="104"/>
-      <c r="M120" s="104"/>
-      <c r="N120" s="96"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L120" s="92"/>
+      <c r="M120" s="92"/>
+      <c r="N120" s="89"/>
+    </row>
+    <row r="121" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="60" t="s">
         <v>222</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="N121" s="70"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="49" t="s">
         <v>224</v>
       </c>
@@ -3928,27 +3928,27 @@
       </c>
       <c r="N122" s="52"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="132" t="s">
+    <row r="123" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B123" s="98"/>
-      <c r="C123" s="98"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
       <c r="D123" s="87"/>
-      <c r="F123" s="132" t="s">
+      <c r="F123" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="G123" s="98"/>
-      <c r="H123" s="98"/>
+      <c r="G123" s="107"/>
+      <c r="H123" s="107"/>
       <c r="I123" s="87"/>
-      <c r="K123" s="132" t="s">
+      <c r="K123" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="L123" s="98"/>
-      <c r="M123" s="98"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="107"/>
       <c r="N123" s="87"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="72" t="s">
         <v>229</v>
       </c>
@@ -3972,27 +3972,27 @@
       <c r="M124" s="73"/>
       <c r="N124" s="74"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="140" t="s">
+    <row r="125" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="98"/>
-      <c r="C125" s="98"/>
-      <c r="D125" s="98"/>
-      <c r="F125" s="133" t="s">
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="F125" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="G125" s="98"/>
-      <c r="H125" s="98"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
       <c r="I125" s="87"/>
-      <c r="K125" s="133" t="s">
+      <c r="K125" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="L125" s="98"/>
-      <c r="M125" s="98"/>
+      <c r="L125" s="107"/>
+      <c r="M125" s="107"/>
       <c r="N125" s="87"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="75" t="s">
         <v>233</v>
       </c>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="N126" s="78"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="79" t="s">
         <v>235</v>
       </c>
@@ -4058,28 +4058,28 @@
       </c>
       <c r="N127" s="71"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="134" t="s">
+    <row r="128" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="104"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
       <c r="E128" s="80"/>
-      <c r="F128" s="134" t="s">
+      <c r="F128" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="G128" s="104"/>
-      <c r="H128" s="104"/>
-      <c r="I128" s="96"/>
-      <c r="K128" s="134" t="s">
+      <c r="G128" s="92"/>
+      <c r="H128" s="92"/>
+      <c r="I128" s="89"/>
+      <c r="K128" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="L128" s="104"/>
-      <c r="M128" s="104"/>
-      <c r="N128" s="96"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L128" s="92"/>
+      <c r="M128" s="92"/>
+      <c r="N128" s="89"/>
+    </row>
+    <row r="129" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="75" t="s">
         <v>239</v>
       </c>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="N129" s="76"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
         <v>243</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="N130" s="48"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="79" t="s">
         <v>182</v>
       </c>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="N131" s="9"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="83" t="s">
         <v>251</v>
       </c>
@@ -4211,91 +4211,78 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="M90:M94"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="K123:N123"/>
-    <mergeCell ref="K125:N125"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A65:A78"/>
+    <mergeCell ref="G65:G78"/>
+    <mergeCell ref="M65:M78"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="H67:H78"/>
+    <mergeCell ref="N67:N78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="C87:E87"/>
     <mergeCell ref="N95:O95"/>
@@ -4320,78 +4307,91 @@
     <mergeCell ref="O87:Q87"/>
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="A62:R62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="A65:A78"/>
-    <mergeCell ref="G65:G78"/>
-    <mergeCell ref="M65:M78"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="H67:H78"/>
-    <mergeCell ref="N67:N78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="K123:N123"/>
+    <mergeCell ref="K125:N125"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="K120:N120"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="M90:M94"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
   </mergeCells>
   <dataValidations count="27">
     <dataValidation type="list" allowBlank="1" sqref="D115 I115 N115">
